--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,21 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>eTitle</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +75,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +129,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +164,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +372,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -32,14 +33,37 @@
   </si>
   <si>
     <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>ErrMsg</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Username or Password is invalid. Please try again.</t>
+  </si>
+  <si>
+    <t>damager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,12 +87,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,28 +428,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>UserName</t>
   </si>
@@ -48,13 +48,19 @@
   </si>
   <si>
     <t>damager</t>
+  </si>
+  <si>
+    <t>manjukypa</t>
+  </si>
+  <si>
+    <t>bollywood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +70,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -106,10 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,10 +217,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,21 +426,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,16 +451,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -456,21 +472,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -492,7 +508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -503,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -512,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
